--- a/app/storage/files/calc1.xlsx
+++ b/app/storage/files/calc1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>2013/14 tax year</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>2014/15 tax year</t>
+  </si>
+  <si>
+    <t>total annual tax savings</t>
+  </si>
+  <si>
+    <t>Incorporated</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1171,6 +1177,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,12 +1417,10 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1433,8 +1438,113 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-PH"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>Net in Pocket (Total)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Incorporation (2)'!$J$62:$K$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sole Trader</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incorporated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Incorporation (2)'!$J$63:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0\ ;\-#,##0">
+                  <c:v>16916.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="201656960"/>
+        <c:axId val="153867008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201656960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153867008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153867008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0\ ;\-#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201656960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1518,14 +1628,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
       </c:doughnutChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1543,7 +1651,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1659,11 +1767,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1681,7 +1789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1761,12 +1869,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="136546176"/>
-        <c:axId val="136547712"/>
+        <c:axId val="160034816"/>
+        <c:axId val="160036352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136546176"/>
+        <c:axId val="160034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1883,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136547712"/>
+        <c:crossAx val="160036352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1891,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136547712"/>
+        <c:axId val="160036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,13 +1915,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136546176"/>
+        <c:crossAx val="160034816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1832,7 +1940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1900,12 +2008,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="136576384"/>
-        <c:axId val="50074752"/>
+        <c:axId val="160069120"/>
+        <c:axId val="160070656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136576384"/>
+        <c:axId val="160069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +2022,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50074752"/>
+        <c:crossAx val="160070656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1923,7 +2030,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50074752"/>
+        <c:axId val="160070656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,13 +2055,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136576384"/>
+        <c:crossAx val="160069120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1972,7 +2080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2088,7 +2196,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
@@ -2111,7 +2218,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2191,12 +2298,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="50237440"/>
-        <c:axId val="50238976"/>
+        <c:axId val="159636480"/>
+        <c:axId val="143926016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50237440"/>
+        <c:axId val="159636480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2312,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50238976"/>
+        <c:crossAx val="143926016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2320,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50238976"/>
+        <c:axId val="143926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50237440"/>
+        <c:crossAx val="159636480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,7 +2369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2272,24 +2378,38 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-PH"/>
-  <c:roundedCorners val="1"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>Total Annual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> Tax Savings vs. Accountant Fee</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-PH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Incorporation (2)'!$D$62:$E$62</c:f>
@@ -2311,75 +2431,41 @@
                 <c:formatCode>#,##0\ ;\-#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2675.16</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>535.03200000000004</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="50267648"/>
-        <c:axId val="50269184"/>
+        <c:axId val="133923200"/>
+        <c:axId val="133924736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50267648"/>
+        <c:axId val="133923200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50269184"/>
+        <c:crossAx val="133924736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50269184"/>
+        <c:axId val="133924736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0\ ;\-#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50267648"/>
+        <c:crossAx val="133923200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2387,25 +2473,118 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-PH"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>Net in Pocket (Total)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Incorporation (2)'!$G$62:$H$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Partnership</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incorporated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Incorporation (2)'!$G$63:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ ;\-#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="154334336"/>
+        <c:axId val="208777984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="154334336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208777984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208777984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0\ ;\-#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154334336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2422,10 +2601,10 @@
     <xdr:ext cx="5591175" cy="2743200"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,10 +2632,10 @@
     <xdr:ext cx="5895975" cy="2743200"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,10 +2663,10 @@
     <xdr:ext cx="4743450" cy="1190625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image00.jpg">
+        <xdr:cNvPr id="4" name="image00.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000000000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2709,7 @@
         <xdr:cNvPr id="3" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2740,7 @@
         <xdr:cNvPr id="4" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2771,7 @@
         <xdr:cNvPr id="5" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2802,7 @@
         <xdr:cNvPr id="6" name="image00.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000000000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2845,7 @@
         <xdr:cNvPr id="6" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2876,7 @@
         <xdr:cNvPr id="7" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,37 +2896,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5991225" cy="2724150"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -2759,14 +2907,14 @@
         <xdr:cNvPr id="5" name="image00.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2784,6 +2932,96 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3042,7 +3280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4342,7 +4580,7 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -7208,9 +7446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -8910,12 +9148,16 @@
         <f>IF((C25=0),0,IF((C25&gt;0),($D$16-D35)))</f>
         <v>16916.04</v>
       </c>
-      <c r="E37" s="122"/>
+      <c r="E37" s="122">
+        <v>10</v>
+      </c>
       <c r="F37" s="146" t="str">
         <f>IF(($D$12="Sole Trader"),"0",IF((SUM(F15:J15)&gt;0),($D$16-$F$35)))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="147"/>
+      <c r="G37" s="147">
+        <v>10</v>
+      </c>
       <c r="H37" s="146">
         <f>$K$17-$T$30</f>
         <v>12745.92</v>
@@ -9508,10 +9750,14 @@
       <c r="B53" s="8"/>
       <c r="C53" s="53"/>
       <c r="D53" s="160"/>
-      <c r="E53" s="166"/>
+      <c r="E53" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="F53" s="167"/>
       <c r="G53" s="167"/>
-      <c r="H53" s="168"/>
+      <c r="H53" s="168">
+        <v>100</v>
+      </c>
       <c r="I53" s="169"/>
       <c r="J53" s="57"/>
       <c r="K53" s="8"/>
@@ -9568,7 +9814,9 @@
       <c r="E55" s="166"/>
       <c r="F55" s="162"/>
       <c r="G55" s="162"/>
-      <c r="H55" s="170"/>
+      <c r="H55" s="170">
+        <v>10</v>
+      </c>
       <c r="I55" s="169"/>
       <c r="J55" s="57"/>
       <c r="K55" s="8"/>
@@ -9773,11 +10021,19 @@
         <v>41</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+      <c r="J62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -9797,19 +10053,31 @@
       <c r="B63" s="8"/>
       <c r="C63" s="11"/>
       <c r="D63" s="175">
-        <f>H52</f>
-        <v>2675.16</v>
+        <f>H53</f>
+        <v>100</v>
       </c>
       <c r="E63" s="175">
-        <f>H54</f>
-        <v>535.03200000000004</v>
+        <f>H55</f>
+        <v>10</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="G63" s="175" t="str">
+        <f>F37</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="175">
+        <f>G37</f>
+        <v>10</v>
+      </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="J63" s="182">
+        <f>D37</f>
+        <v>16916.04</v>
+      </c>
+      <c r="K63" s="8">
+        <f>E37</f>
+        <v>10</v>
+      </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
